--- a/biology/Zoologie/Amazone_à_lores_rouges/Amazone_à_lores_rouges.xlsx
+++ b/biology/Zoologie/Amazone_à_lores_rouges/Amazone_à_lores_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_lores_rouges</t>
+          <t>Amazone_à_lores_rouges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona autumnalis
 L'Amazone à lores rouges (Amazona autumnalis) est une espèce d'oiseaux de la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_lores_rouges</t>
+          <t>Amazone_à_lores_rouges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent en Amérique centrale et du Sud : Belize, Brésil, Colombie, Costa Rica, Équateur, Guatemala, Honduras, Mexique, Nicaragua, Panama et Venezuela.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_lores_rouges</t>
+          <t>Amazone_à_lores_rouges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une de ses sous-espèces est désormais reconnue comme une espèce à part entière, Amazona diadema, par le Congrès ornithologique international. Lorsqu'elle était encore considérée comme une sous-espèce de Amazona autumnalis, le CINFO donnait alors à ce taxon le nom normalisé d'Amazone diadème.
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une de ses sous-espèces est désormais reconnue comme une espèce à part entière, Amazona diadema, par le Congrès ornithologique international. Lorsqu'elle était encore considérée comme une sous-espèce de Amazona autumnalis, le CINFO donnait alors à ce taxon le nom normalisé d'Amazone diadème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amazone_à_lores_rouges</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amazone_%C3%A0_lores_rouges</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Amazona autumnalis autumnalis  (Linnaeus, 1758) ;
 Amazona autumnalis salvini  (Salvadori, 1891) ;
 Amazona autumnalis lilacina  Lesson, 1844.</t>
